--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -8,62 +8,13 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="variable_mapping"/>
-    <sheet r:id="rId2" sheetId="2" name="LOTTE"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
-  <si>
-    <t>받는분성명</t>
-  </si>
-  <si>
-    <t>받는분전화번호</t>
-  </si>
-  <si>
-    <t>받는분주소(전체, 분할)</t>
-  </si>
-  <si>
-    <t>품목명</t>
-  </si>
-  <si>
-    <t>내품수량</t>
-  </si>
-  <si>
-    <t>배송메세지1</t>
-  </si>
-  <si>
-    <t>기타1</t>
-  </si>
-  <si>
-    <t>고객주문번호</t>
-  </si>
-  <si>
-    <t>{receipients_name}</t>
-  </si>
-  <si>
-    <t>{receipients_phone_number}</t>
-  </si>
-  <si>
-    <t>{long_address}</t>
-  </si>
-  <si>
-    <t>{option_info}</t>
-  </si>
-  <si>
-    <t>{product_counts}</t>
-  </si>
-  <si>
-    <t>{message}</t>
-  </si>
-  <si>
-    <t>{PlatformName}</t>
-  </si>
-  <si>
-    <t>{order_id}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>Platform Name</t>
   </si>
@@ -268,7 +219,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,62 +233,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -351,46 +261,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +303,10 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -700,402 +586,324 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>30</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>42</v>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>42</v>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>67</v>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="11">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>71</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="44.57642857142857" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
-    <t>Platform Name</t>
-  </si>
-  <si>
-    <t>Header Row</t>
+    <t>PlatformName</t>
+  </si>
+  <si>
+    <t>HeaderRow</t>
   </si>
   <si>
     <t>order_id</t>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -270,13 +270,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,19 +585,19 @@
   <cols>
     <col min="1" max="1" style="3" width="15.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -650,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -693,7 +690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -734,7 +731,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -775,7 +772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -818,7 +815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -859,7 +856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>

--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>PlatformName</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>주문 상품</t>
-  </si>
-  <si>
-    <t>주문 옵션</t>
   </si>
   <si>
     <t>주문 수량</t>
@@ -647,7 +644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -690,7 +687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -704,36 +701,36 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -751,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
@@ -762,19 +759,19 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -783,41 +780,41 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -841,66 +838,66 @@
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>PlatformName</t>
   </si>
@@ -31,6 +31,9 @@
     <t>option_info</t>
   </si>
   <si>
+    <t>additional_option</t>
+  </si>
+  <si>
     <t>product_counts</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>옵션</t>
+  </si>
+  <si>
+    <t>추가구성</t>
   </si>
   <si>
     <t>수량</t>
@@ -258,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,10 +273,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,27 +586,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -613,7 +626,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -642,262 +655,273 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>PlatformName</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>주문 상품</t>
+  </si>
+  <si>
+    <t>주문 옵션</t>
   </si>
   <si>
     <t>주문 수량</t>
@@ -720,37 +723,37 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -769,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -780,11 +783,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>28</v>
@@ -792,7 +795,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -801,42 +804,42 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -861,67 +864,67 @@
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
